--- a/test/yinyueriji/config/datas.xlsx
+++ b/test/yinyueriji/config/datas.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="webstatus" sheetId="1" r:id="rId1"/>
     <sheet name="appapi" sheetId="2" r:id="rId2"/>
     <sheet name="webapi" sheetId="4" r:id="rId3"/>
-    <sheet name="create" sheetId="3" r:id="rId4"/>
+    <sheet name="create_appapi" sheetId="3" r:id="rId4"/>
+    <sheet name="create_webapi" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="UFPrn20120914163659">#REF!</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="359">
   <si>
     <t>index.php/myself/myarticledelete</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1519,10 +1520,6 @@
   </si>
   <si>
     <t>Request_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t-webapi.yinyueriji.net/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1685,6 +1682,22 @@
     <t>手机号11位合法号段验证130-139,145-149,150-153，155-159,165-166,171-178,180-189.191,198-199</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>index.php/front-user/update-username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t-appapi.yinyueriji.net/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1763,7 +1776,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1812,6 +1825,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1822,9 +1841,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2398,7 +2414,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="18" t="s">
         <v>170</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2424,7 +2440,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="2" t="s">
         <v>166</v>
       </c>
@@ -2448,7 +2464,7 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="2" t="s">
         <v>162</v>
       </c>
@@ -2470,7 +2486,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="2" t="s">
         <v>159</v>
       </c>
@@ -2494,7 +2510,7 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="2" t="s">
         <v>156</v>
       </c>
@@ -2521,7 +2537,7 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>151</v>
       </c>
@@ -2545,7 +2561,7 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>147</v>
       </c>
@@ -2565,7 +2581,7 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>145</v>
       </c>
@@ -2587,7 +2603,7 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="2" t="s">
         <v>142</v>
       </c>
@@ -2608,7 +2624,7 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="2" t="s">
         <v>138</v>
       </c>
@@ -2629,7 +2645,7 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="16"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="2" t="s">
         <v>134</v>
       </c>
@@ -2648,7 +2664,7 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="2" t="s">
         <v>131</v>
       </c>
@@ -2665,7 +2681,7 @@
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="16"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="2" t="s">
         <v>316</v>
       </c>
@@ -2682,7 +2698,7 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="18" t="s">
         <v>128</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2702,7 +2718,7 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="2" t="s">
         <v>318</v>
       </c>
@@ -2720,7 +2736,7 @@
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="2" t="s">
         <v>125</v>
       </c>
@@ -2738,7 +2754,7 @@
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="16"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="2" t="s">
         <v>123</v>
       </c>
@@ -2756,7 +2772,7 @@
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="2" t="s">
         <v>121</v>
       </c>
@@ -2774,7 +2790,7 @@
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="2" t="s">
         <v>119</v>
       </c>
@@ -2792,7 +2808,7 @@
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="2" t="s">
         <v>117</v>
       </c>
@@ -2810,7 +2826,7 @@
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="16"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="2" t="s">
         <v>115</v>
       </c>
@@ -2828,7 +2844,7 @@
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="2" t="s">
         <v>113</v>
       </c>
@@ -2846,7 +2862,7 @@
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="16"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="2" t="s">
         <v>111</v>
       </c>
@@ -2864,7 +2880,7 @@
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="16"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="2" t="s">
         <v>108</v>
       </c>
@@ -2883,7 +2899,7 @@
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="16"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="2" t="s">
         <v>105</v>
       </c>
@@ -2902,7 +2918,7 @@
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2922,7 +2938,7 @@
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="16"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="2" t="s">
         <v>99</v>
       </c>
@@ -2942,7 +2958,7 @@
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="18" t="s">
         <v>97</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2960,7 +2976,7 @@
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="16"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="2" t="s">
         <v>95</v>
       </c>
@@ -2978,7 +2994,7 @@
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="16"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="2" t="s">
         <v>93</v>
       </c>
@@ -3016,7 +3032,7 @@
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="18" t="s">
         <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -3036,7 +3052,7 @@
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="16"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="2" t="s">
         <v>31</v>
       </c>
@@ -3054,7 +3070,7 @@
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="16"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="2" t="s">
         <v>84</v>
       </c>
@@ -3072,7 +3088,7 @@
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="18" t="s">
         <v>82</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -3092,7 +3108,7 @@
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="16"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="2" t="s">
         <v>79</v>
       </c>
@@ -3110,7 +3126,7 @@
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="16"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="2" t="s">
         <v>77</v>
       </c>
@@ -3128,7 +3144,7 @@
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="16"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="2" t="s">
         <v>75</v>
       </c>
@@ -3143,7 +3159,7 @@
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="16"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="2" t="s">
         <v>74</v>
       </c>
@@ -3161,7 +3177,7 @@
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="16"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="2" t="s">
         <v>72</v>
       </c>
@@ -3177,7 +3193,7 @@
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -3197,7 +3213,7 @@
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="16"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="2" t="s">
         <v>67</v>
       </c>
@@ -3215,7 +3231,7 @@
       <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="16"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="2" t="s">
         <v>65</v>
       </c>
@@ -3233,7 +3249,7 @@
       <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="16"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="2" t="s">
         <v>63</v>
       </c>
@@ -3251,7 +3267,7 @@
       <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="16"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="2" t="s">
         <v>61</v>
       </c>
@@ -3269,7 +3285,7 @@
       <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="16"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="2" t="s">
         <v>59</v>
       </c>
@@ -3287,7 +3303,7 @@
       <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="16"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="2" t="s">
         <v>57</v>
       </c>
@@ -3305,7 +3321,7 @@
       <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="16"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="2" t="s">
         <v>55</v>
       </c>
@@ -3323,7 +3339,7 @@
       <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="16"/>
+      <c r="B56" s="18"/>
       <c r="C56" s="2" t="s">
         <v>53</v>
       </c>
@@ -3339,7 +3355,7 @@
       <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="16"/>
+      <c r="B57" s="18"/>
       <c r="C57" s="2" t="s">
         <v>51</v>
       </c>
@@ -3355,7 +3371,7 @@
       <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="16"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="2" t="s">
         <v>49</v>
       </c>
@@ -3371,7 +3387,7 @@
       <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="16"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="2" t="s">
         <v>47</v>
       </c>
@@ -3387,7 +3403,7 @@
       <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="16"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="2" t="s">
         <v>45</v>
       </c>
@@ -3403,7 +3419,7 @@
       <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="16"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="2" t="s">
         <v>43</v>
       </c>
@@ -3419,7 +3435,7 @@
       <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="16"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="2" t="s">
         <v>41</v>
       </c>
@@ -3437,7 +3453,7 @@
       <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="16"/>
+      <c r="B63" s="18"/>
       <c r="C63" s="2" t="s">
         <v>39</v>
       </c>
@@ -3455,7 +3471,7 @@
       <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="16"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="2" t="s">
         <v>37</v>
       </c>
@@ -3473,7 +3489,7 @@
       <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="16"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="2" t="s">
         <v>35</v>
       </c>
@@ -3491,7 +3507,7 @@
       <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="16"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="2" t="s">
         <v>33</v>
       </c>
@@ -3509,7 +3525,7 @@
       <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="16"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="2" t="s">
         <v>31</v>
       </c>
@@ -3527,7 +3543,7 @@
       <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="16"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="2" t="s">
         <v>29</v>
       </c>
@@ -3542,7 +3558,7 @@
       <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="16"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="2" t="s">
         <v>28</v>
       </c>
@@ -3560,7 +3576,7 @@
       <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="16"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="2" t="s">
         <v>27</v>
       </c>
@@ -3578,7 +3594,7 @@
       <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="16"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
@@ -3596,7 +3612,7 @@
       <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" s="16"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="2" t="s">
         <v>23</v>
       </c>
@@ -3614,7 +3630,7 @@
       <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="16"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="2" t="s">
         <v>19</v>
       </c>
@@ -3632,7 +3648,7 @@
       <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" s="16"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="2" t="s">
         <v>21</v>
       </c>
@@ -3650,7 +3666,7 @@
       <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" s="16"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="2" t="s">
         <v>19</v>
       </c>
@@ -3668,7 +3684,7 @@
       <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76" s="16"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
@@ -3686,7 +3702,7 @@
       <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77" s="16"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
@@ -3704,7 +3720,7 @@
       <c r="A78" s="4">
         <v>77</v>
       </c>
-      <c r="B78" s="16"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
@@ -3722,7 +3738,7 @@
       <c r="A79" s="4">
         <v>78</v>
       </c>
-      <c r="B79" s="16"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="2" t="s">
         <v>11</v>
       </c>
@@ -3740,7 +3756,7 @@
       <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80" s="16"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
@@ -3758,7 +3774,7 @@
       <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" s="16"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="2" t="s">
         <v>7</v>
       </c>
@@ -3776,7 +3792,7 @@
       <c r="A82" s="4">
         <v>81</v>
       </c>
-      <c r="B82" s="16"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="2" t="s">
         <v>5</v>
       </c>
@@ -3794,7 +3810,7 @@
       <c r="A83" s="4">
         <v>82</v>
       </c>
-      <c r="B83" s="16"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -3973,7 +3989,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>242</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -4003,7 +4019,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="2" t="s">
         <v>286</v>
       </c>
@@ -4031,7 +4047,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="2" t="s">
         <v>287</v>
       </c>
@@ -4059,7 +4075,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="2" t="s">
         <v>288</v>
       </c>
@@ -4087,7 +4103,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="2" t="s">
         <v>289</v>
       </c>
@@ -4115,7 +4131,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2" t="s">
         <v>290</v>
       </c>
@@ -4143,7 +4159,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="2" t="s">
         <v>291</v>
       </c>
@@ -4171,7 +4187,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2" t="s">
         <v>292</v>
       </c>
@@ -4199,7 +4215,7 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2" t="s">
         <v>293</v>
       </c>
@@ -4227,7 +4243,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="2" t="s">
         <v>294</v>
       </c>
@@ -4255,7 +4271,7 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="2" t="s">
         <v>295</v>
       </c>
@@ -4283,7 +4299,7 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -4313,7 +4329,7 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
         <v>281</v>
       </c>
@@ -4341,7 +4357,7 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="2" t="s">
         <v>282</v>
       </c>
@@ -4369,7 +4385,7 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="2" t="s">
         <v>283</v>
       </c>
@@ -4397,7 +4413,7 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="2" t="s">
         <v>284</v>
       </c>
@@ -4425,7 +4441,7 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="20" t="s">
         <v>265</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -4445,7 +4461,7 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="2" t="s">
         <v>271</v>
       </c>
@@ -4463,7 +4479,7 @@
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="2" t="s">
         <v>272</v>
       </c>
@@ -4481,7 +4497,7 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="2" t="s">
         <v>273</v>
       </c>
@@ -4499,7 +4515,7 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="2" t="s">
         <v>274</v>
       </c>
@@ -4517,7 +4533,7 @@
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="2" t="s">
         <v>275</v>
       </c>
@@ -4535,7 +4551,7 @@
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="2" t="s">
         <v>320</v>
       </c>
@@ -4553,7 +4569,7 @@
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="2" t="s">
         <v>276</v>
       </c>
@@ -4571,7 +4587,7 @@
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="2" t="s">
         <v>277</v>
       </c>
@@ -4589,7 +4605,7 @@
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="2" t="s">
         <v>304</v>
       </c>
@@ -4607,7 +4623,7 @@
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="21" t="s">
         <v>266</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -4627,7 +4643,7 @@
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="2" t="s">
         <v>279</v>
       </c>
@@ -4645,7 +4661,7 @@
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="19"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="2" t="s">
         <v>303</v>
       </c>
@@ -4664,16 +4680,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>355</v>
+        <v>349</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>354</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>252</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>247</v>
@@ -4684,16 +4700,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>353</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>354</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>252</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>267</v>
@@ -4703,7 +4719,7 @@
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -4723,7 +4739,7 @@
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="17"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="2" t="s">
         <v>296</v>
       </c>
@@ -4741,7 +4757,7 @@
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="17"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="2" t="s">
         <v>298</v>
       </c>
@@ -4759,7 +4775,7 @@
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="17"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="2" t="s">
         <v>299</v>
       </c>
@@ -4777,7 +4793,7 @@
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="17"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="2" t="s">
         <v>299</v>
       </c>
@@ -4795,7 +4811,7 @@
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="19" t="s">
         <v>313</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -4815,7 +4831,7 @@
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="17"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="2">
         <v>30</v>
       </c>
@@ -4894,7 +4910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -4957,7 +4973,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>242</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -4987,7 +5003,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="2" t="s">
         <v>286</v>
       </c>
@@ -5015,7 +5031,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="2" t="s">
         <v>287</v>
       </c>
@@ -5043,7 +5059,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="2" t="s">
         <v>288</v>
       </c>
@@ -5071,7 +5087,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="2" t="s">
         <v>289</v>
       </c>
@@ -5099,7 +5115,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2" t="s">
         <v>290</v>
       </c>
@@ -5127,7 +5143,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="2" t="s">
         <v>291</v>
       </c>
@@ -5155,7 +5171,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2" t="s">
         <v>292</v>
       </c>
@@ -5183,7 +5199,7 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2" t="s">
         <v>293</v>
       </c>
@@ -5211,7 +5227,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="2" t="s">
         <v>294</v>
       </c>
@@ -5239,7 +5255,7 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="2" t="s">
         <v>295</v>
       </c>
@@ -5267,7 +5283,7 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -5297,7 +5313,7 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
         <v>281</v>
       </c>
@@ -5325,7 +5341,7 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="2" t="s">
         <v>282</v>
       </c>
@@ -5353,7 +5369,7 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="2" t="s">
         <v>283</v>
       </c>
@@ -5381,7 +5397,7 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="2" t="s">
         <v>284</v>
       </c>
@@ -5409,7 +5425,7 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="20" t="s">
         <v>265</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -5429,7 +5445,7 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="2" t="s">
         <v>271</v>
       </c>
@@ -5447,7 +5463,7 @@
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="2" t="s">
         <v>272</v>
       </c>
@@ -5465,7 +5481,7 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="2" t="s">
         <v>273</v>
       </c>
@@ -5483,7 +5499,7 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="2" t="s">
         <v>274</v>
       </c>
@@ -5501,7 +5517,7 @@
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="2" t="s">
         <v>275</v>
       </c>
@@ -5519,7 +5535,7 @@
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="2" t="s">
         <v>320</v>
       </c>
@@ -5537,7 +5553,7 @@
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="2" t="s">
         <v>276</v>
       </c>
@@ -5555,7 +5571,7 @@
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="2" t="s">
         <v>277</v>
       </c>
@@ -5573,7 +5589,7 @@
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="2" t="s">
         <v>304</v>
       </c>
@@ -5591,7 +5607,7 @@
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="21" t="s">
         <v>266</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -5611,7 +5627,7 @@
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="2" t="s">
         <v>279</v>
       </c>
@@ -5629,7 +5645,7 @@
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="19"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="2" t="s">
         <v>303</v>
       </c>
@@ -5648,16 +5664,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>355</v>
+        <v>349</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>354</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>252</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>247</v>
@@ -5668,16 +5684,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>353</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>354</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>252</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>267</v>
@@ -5687,7 +5703,7 @@
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -5707,7 +5723,7 @@
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="17"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="2" t="s">
         <v>296</v>
       </c>
@@ -5725,7 +5741,7 @@
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="17"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="2" t="s">
         <v>298</v>
       </c>
@@ -5743,7 +5759,7 @@
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="17"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="2" t="s">
         <v>299</v>
       </c>
@@ -5761,7 +5777,7 @@
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="17"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="2" t="s">
         <v>299</v>
       </c>
@@ -5779,7 +5795,7 @@
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="19" t="s">
         <v>313</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -5799,7 +5815,7 @@
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="17"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="2">
         <v>30</v>
       </c>
@@ -5850,12 +5866,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B38:B39"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="B18:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5875,10 +5891,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5938,21 +5954,21 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>331</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
+      <c r="D2" s="14" t="s">
+        <v>357</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -5968,18 +5984,18 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
+      <c r="D3" s="14" t="s">
+        <v>357</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>338</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>135</v>
@@ -5989,16 +6005,18 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="14" t="s">
+        <v>357</v>
+      </c>
       <c r="E4" s="8" t="s">
         <v>86</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K4" s="2"/>
     </row>
@@ -6006,16 +6024,18 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="14" t="s">
+        <v>357</v>
+      </c>
       <c r="E5" s="8" t="s">
         <v>338</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K5" s="2"/>
     </row>
@@ -6023,16 +6043,18 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="14" t="s">
+        <v>357</v>
+      </c>
       <c r="E6" s="8" t="s">
         <v>338</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K6" s="2"/>
     </row>
@@ -6040,16 +6062,18 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="14" t="s">
+        <v>357</v>
+      </c>
       <c r="E7" s="8" t="s">
         <v>86</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -6064,14 +6088,14 @@
         <v>332</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>342</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -6084,15 +6108,571 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>356</v>
+      </c>
       <c r="D9" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="13"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B11" s="13"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="13"/>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B13" s="13"/>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="13"/>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="13"/>
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B16" s="13"/>
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="13"/>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="13"/>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="13"/>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="13"/>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="13"/>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B22" s="13"/>
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B23" s="13"/>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="13"/>
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="13"/>
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="13"/>
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B27" s="13"/>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="13"/>
+      <c r="C28" s="16"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B29" s="13"/>
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B30" s="13"/>
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B31" s="13"/>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B32" s="13"/>
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="13"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="13"/>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="13"/>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="13"/>
+      <c r="C36" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D5" r:id="rId6"/>
+    <hyperlink ref="D7" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="114.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>341</v>
       </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="E9" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>344</v>
-      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="13"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B11" s="13"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="13"/>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B13" s="13"/>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="13"/>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="13"/>
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B16" s="13"/>
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="13"/>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="13"/>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="13"/>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="13"/>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="13"/>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B22" s="13"/>
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B23" s="13"/>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="13"/>
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="13"/>
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="13"/>
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B27" s="13"/>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="13"/>
+      <c r="C28" s="16"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B29" s="13"/>
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B30" s="13"/>
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B31" s="13"/>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B32" s="13"/>
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="13"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="13"/>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="13"/>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="13"/>
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="13"/>
+      <c r="C37" s="16"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="13"/>
+      <c r="C38" s="16"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B39" s="13"/>
+      <c r="C39" s="16"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B40" s="13"/>
+      <c r="C40" s="16"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B41" s="13"/>
+      <c r="C41" s="16"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B42" s="13"/>
+      <c r="C42" s="16"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B43" s="13"/>
+      <c r="C43" s="16"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B44" s="13"/>
+      <c r="C44" s="16"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B45" s="13"/>
+      <c r="C45" s="16"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B46" s="13"/>
+      <c r="C46" s="16"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B47" s="13"/>
+      <c r="C47" s="16"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B48" s="13"/>
+      <c r="C48" s="16"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B49" s="13"/>
+      <c r="C49" s="16"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B50" s="13"/>
+      <c r="C50" s="16"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B51" s="13"/>
+      <c r="C51" s="16"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B52" s="13"/>
+      <c r="C52" s="16"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B53" s="13"/>
+      <c r="C53" s="16"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B54" s="13"/>
+      <c r="C54" s="16"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B55" s="13"/>
+      <c r="C55" s="16"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B56" s="13"/>
+      <c r="C56" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6106,6 +6686,5 @@
     <hyperlink ref="D9" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/test/yinyueriji/config/datas.xlsx
+++ b/test/yinyueriji/config/datas.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="webstatus" sheetId="1" r:id="rId1"/>
     <sheet name="appapi" sheetId="2" r:id="rId2"/>
     <sheet name="webapi" sheetId="4" r:id="rId3"/>
-    <sheet name="create_appapi" sheetId="3" r:id="rId4"/>
-    <sheet name="create_webapi" sheetId="5" r:id="rId5"/>
+    <sheet name="cappapi" sheetId="3" r:id="rId4"/>
+    <sheet name="cwebapi" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="UFPrn20120914163659">#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="361">
   <si>
     <t>index.php/myself/myarticledelete</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1696,6 +1696,14 @@
   </si>
   <si>
     <t>更改用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"loginuid":"","logintoken":"","cmd":"check","params":{"old_username":"","old_password":"","username":""}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改琴行用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2221,7 +2229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -3926,8 +3934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4910,7 +4918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -5893,8 +5901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6259,8 +6267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6269,7 +6277,7 @@
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="114.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
@@ -6466,7 +6474,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -6474,7 +6482,7 @@
         <v>356</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>4</v>
@@ -6483,7 +6491,7 @@
         <v>355</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">

--- a/test/yinyueriji/config/datas.xlsx
+++ b/test/yinyueriji/config/datas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="webstatus" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="UFPrn20120914163659">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1885,74 +1885,6 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1972,7 +1904,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4918,8 +4850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6267,7 +6199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
